--- a/Sprint_1_ASAFS.xlsx
+++ b/Sprint_1_ASAFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surbhi Batra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3C0C452-7C60-408B-84CA-17606ED1675B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{252434F5-7A54-4743-B204-8C2082AB8EFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="904" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6940" tabRatio="904" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Release Plan" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint1" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Team Members</t>
   </si>
@@ -660,13 +660,13 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -970,13 +970,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>59</v>
       </c>
@@ -984,76 +984,76 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="60"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="61"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="29" t="s">
         <v>11</v>
       </c>
@@ -1074,20 +1074,20 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="44">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="44">
         <v>2</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="44">
         <v>3</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="44">
         <v>4</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="44">
         <v>5</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="44">
         <v>6</v>
       </c>
@@ -1146,27 +1146,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="44">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="44">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="44">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="44">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="44"/>
     </row>
   </sheetData>
@@ -1186,15 +1186,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="60.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.1796875" customWidth="1"/>
+    <col min="5" max="5" width="60.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C3" s="51" t="s">
         <v>30</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="48" t="s">
         <v>28</v>
@@ -1211,7 +1211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="48" t="s">
         <v>29</v>
@@ -1220,7 +1220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="48" t="s">
         <v>33</v>
@@ -1229,7 +1229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="48" t="s">
         <v>58</v>
@@ -1238,22 +1238,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="E8" s="53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="49" t="s">
         <v>52</v>
@@ -1262,102 +1262,102 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="49" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="49" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="52" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="45" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="45" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="56"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
     </row>
   </sheetData>
@@ -1372,17 +1372,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D3" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>43204</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>36</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>43211</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>37</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>38</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>39</v>
       </c>
@@ -1422,12 +1422,12 @@
         <v>43232</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D10" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>40</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>43246</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>41</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>42</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>43260</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>43</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>43267</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>44</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>43274</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>45</v>
       </c>
@@ -1484,20 +1484,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="9" width="14.85546875" customWidth="1"/>
-    <col min="12" max="14" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="9" width="14.81640625" customWidth="1"/>
+    <col min="12" max="14" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1516,7 +1516,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1527,7 +1527,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="62"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1535,7 +1535,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1556,7 +1556,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -1573,7 +1573,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -1625,7 +1625,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
@@ -1656,7 +1656,7 @@
       <c r="N7" s="12"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>66</v>
       </c>
@@ -1706,10 +1706,14 @@
       <c r="N9" s="12"/>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" t="s">
         <v>57</v>
       </c>
@@ -1725,7 +1729,7 @@
       <c r="N10" s="12"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
@@ -1754,7 +1758,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
@@ -1773,7 +1777,7 @@
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -1794,7 +1798,7 @@
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -1811,7 +1815,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -1828,7 +1832,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -1845,7 +1849,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -1862,7 +1866,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -1879,7 +1883,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -1896,7 +1900,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1942,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="25"/>
       <c r="C21" s="3"/>
       <c r="D21" s="26" t="s">
@@ -1979,7 +1983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="28"/>
       <c r="C22" s="3"/>
       <c r="D22" s="26" t="s">
@@ -2024,7 +2028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="29"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2040,7 +2044,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" s="29"/>
       <c r="C24" s="3"/>
       <c r="D24" s="30"/>
@@ -2056,7 +2060,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="3"/>
@@ -2073,7 +2077,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="12"/>
       <c r="C28" s="3"/>
@@ -2090,7 +2094,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
       <c r="B29" s="12"/>
       <c r="C29" s="3"/>
@@ -2107,7 +2111,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="32"/>
       <c r="B30" s="12"/>
       <c r="C30" s="3"/>
@@ -2124,7 +2128,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="34"/>
       <c r="B31" s="38"/>
       <c r="C31" s="3"/>
@@ -2141,7 +2145,7 @@
       <c r="N31" s="12"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="3"/>
@@ -2158,7 +2162,7 @@
       <c r="N32" s="12"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="3"/>
@@ -2175,7 +2179,7 @@
       <c r="N33" s="12"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="3"/>
@@ -2192,7 +2196,7 @@
       <c r="N34" s="12"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="3"/>
